--- a/biology/Médecine/Allan_Hobson/Allan_Hobson.xlsx
+++ b/biology/Médecine/Allan_Hobson/Allan_Hobson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Allan Hobson, né le 3 juin 1933 à Hartford (Connecticut) et mort le 7 juillet 2021 à East Burke au Vermont[1], est un neuropsychiatre américain. Il obtint son doctorat de médecine en 1959 à l'école de médecine de Harvard. Il est professeur émérite de psychiatrie à l'école de Médecine de Harvard et professeur au Département de Psychiatrie du Centre Médical Beth Israel Deaconess.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Allan Hobson, né le 3 juin 1933 à Hartford (Connecticut) et mort le 7 juillet 2021 à East Burke au Vermont, est un neuropsychiatre américain. Il obtint son doctorat de médecine en 1959 à l'école de médecine de Harvard. Il est professeur émérite de psychiatrie à l'école de Médecine de Harvard et professeur au Département de Psychiatrie du Centre Médical Beth Israel Deaconess.
 Allan Hobson est connu pour ses recherches sur le sommeil paradoxal, pour le modèle Activation-Synthèse qu'il élabora avec son collègue Robert McCarley et pour le modèle AIM de la conscience.
 </t>
         </is>
@@ -512,19 +524,90 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 1989, il participe à la IIe conférence du Mind and Life Institute à Newport Beach en Californie, ayant pour thème les neurosciences[2]. 
-Le modèle Activation-Synthèse
-L'hypothèse de l'activation-synthèse (AS) pose que les rêves sont issus de l'activation aléatoire des neurones dans le cortex cérébral. Le cerveau fait de son mieux pour attribuer un sens aux signaux, dans les conditions de travail défavorables du sommeil paradoxal. Cette hypothèse se présente comme une critique des thèses psychanalytiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 1989, il participe à la IIe conférence du Mind and Life Institute à Newport Beach en Californie, ayant pour thème les neurosciences. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Allan_Hobson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allan_Hobson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le modèle Activation-Synthèse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'hypothèse de l'activation-synthèse (AS) pose que les rêves sont issus de l'activation aléatoire des neurones dans le cortex cérébral. Le cerveau fait de son mieux pour attribuer un sens aux signaux, dans les conditions de travail défavorables du sommeil paradoxal. Cette hypothèse se présente comme une critique des thèses psychanalytiques.
 Allan Hobson distingue cinq procédures à l'œuvre dans le sommeil paradoxal :
 l'auto-activation du cerveau, plus précisément des neurones cholinergiques (alors que les neurones aminergiques cessent toute activité) ;
 l'auto-stimulation du cerveau, produisant des stimuli internes dont l'interprétation va donner le rêve ;
 le blocage sensoriel, qui stoppe l'arrivée des stimuli externes au cerveau ;
 le blocage moteur, qui empêche le dormeur de réagir aux stimuli lui parvenant ;
-la démodulation, c'est-à-dire l'absence de traitement rationnel des stimuli parvenant au rêveur, les neurones chargé de la modulation étant inactifs.
-Le modèle AIM
-Le modèle tridimensionnel AIM est le résultat d'années de recherche sur le sommeil et le rêve. Allan Hobson décrit ce modèle dans l'ouvrage Consciousness (1998). C'est une représentation des états de conscience sur trois axes :
+la démodulation, c'est-à-dire l'absence de traitement rationnel des stimuli parvenant au rêveur, les neurones chargé de la modulation étant inactifs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allan_Hobson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allan_Hobson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le modèle AIM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le modèle tridimensionnel AIM est le résultat d'années de recherche sur le sommeil et le rêve. Allan Hobson décrit ce modèle dans l'ouvrage Consciousness (1998). C'est une représentation des états de conscience sur trois axes :
 A pour activation (présente ou absente) ;
 I pour input-output ou entrée-sortie de stimuli externes (présente ou absente) ;
 M pour modulation (présente ou absente).
@@ -534,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Allan_Hobson</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Allan_Hobson</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1989, Abnormal States of Brain and Mind
 1992, Sleep and Dreams
